--- a/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>KLDI</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E8" s="3">
         <v>78300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>312100</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="3">
+        <v>78300</v>
+      </c>
+      <c r="I8" s="3">
         <v>75000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E9" s="3">
         <v>39500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>160800</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="3">
+        <v>39500</v>
+      </c>
+      <c r="I9" s="3">
         <v>37500</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E10" s="3">
         <v>38800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>151300</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="3">
+        <v>38800</v>
+      </c>
+      <c r="I10" s="3">
         <v>37500</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,17 +825,18 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E12" s="3">
         <v>1700</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
@@ -830,19 +844,22 @@
         <v>3</v>
       </c>
       <c r="H12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I12" s="3">
         <v>1400</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -881,35 +901,38 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E15" s="3">
         <v>8900</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
@@ -917,19 +940,22 @@
         <v>3</v>
       </c>
       <c r="H15" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I15" s="3">
         <v>9800</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E17" s="3">
         <v>77600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>308400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
-        <v>700</v>
-      </c>
       <c r="H17" s="3">
+        <v>77100</v>
+      </c>
+      <c r="I17" s="3">
         <v>76300</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3700</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,37 +1052,40 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-59200</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E21" s="3">
         <v>12500</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1056,27 +1093,30 @@
         <v>3</v>
       </c>
       <c r="H21" s="3">
+        <v>13700</v>
+      </c>
+      <c r="I21" s="3">
         <v>11200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>13000</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="E22" s="3">
+        <v>13000</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1085,53 +1125,59 @@
         <v>3</v>
       </c>
       <c r="H22" s="3">
+        <v>12400</v>
+      </c>
+      <c r="I22" s="3">
         <v>12100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-55600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
-        <v>1400</v>
-      </c>
       <c r="H23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-13400</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
@@ -1140,22 +1186,25 @@
         <v>200</v>
       </c>
       <c r="G24" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-55700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
-        <v>1100</v>
-      </c>
       <c r="H26" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-13500</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-53300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-600</v>
-      </c>
       <c r="H27" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-14100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1366,57 +1436,63 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>59200</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-53300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-600</v>
-      </c>
       <c r="H33" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-14100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-53300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-600</v>
-      </c>
       <c r="H35" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-14100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E41" s="3">
         <v>50600</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="F41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,17 +1681,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>89100</v>
+      </c>
+      <c r="E43" s="3">
         <v>103300</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,25 +1745,28 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E45" s="3">
         <v>15400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>148300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -1675,40 +1774,46 @@
       <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>137500</v>
+      </c>
+      <c r="E46" s="3">
         <v>169400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>148300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1718,35 +1823,38 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>233300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>232200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>230800</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E48" s="3">
         <v>34700</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1765,17 +1873,20 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>515200</v>
+      </c>
+      <c r="E49" s="3">
         <v>518600</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,20 +1969,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>566700</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>686700</v>
+      </c>
+      <c r="E54" s="3">
         <v>725900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>714900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>233900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>232900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>232000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3">
+        <v>200</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,49 +2095,53 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E57" s="3">
         <v>31600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>31300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E58" s="3">
         <v>41400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11700</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -2015,86 +2149,95 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E59" s="3">
         <v>3900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E60" s="3">
         <v>76900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>48200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E61" s="3">
         <v>467500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>468900</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2110,19 +2253,22 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E62" s="3">
         <v>13900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>8100</v>
       </c>
       <c r="G62" s="3">
         <v>8100</v>
@@ -2130,8 +2276,8 @@
       <c r="H62" s="3">
         <v>8100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>8100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>530500</v>
+      </c>
+      <c r="E66" s="3">
         <v>558300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>531100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3">
+        <v>100</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-232900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-218000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-205500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>500</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
       <c r="J72" s="3">
         <v>0</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>156300</v>
+      </c>
+      <c r="E76" s="3">
         <v>167600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>183800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>225000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>224300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>223700</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-53300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-600</v>
-      </c>
       <c r="H81" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-14100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,16 +2832,17 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E83" s="3">
         <v>11800</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2654,8 +2853,8 @@
       <c r="H83" s="3">
         <v>12500</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>12500</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>-800</v>
-      </c>
       <c r="H89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,17 +3070,18 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2868,19 +3089,22 @@
         <v>3</v>
       </c>
       <c r="H91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-2200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>214800</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
-        <v>-230000</v>
+        <v>-224900</v>
       </c>
       <c r="H94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-2200</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,46 +3338,52 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E100" s="3">
         <v>24500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-187800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>231300</v>
       </c>
-      <c r="H100" s="3">
-        <v>231300</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3144,8 +3393,8 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E102" s="3">
         <v>7200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>19500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>500</v>
-      </c>
       <c r="H102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>KLDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>72300</v>
+      </c>
+      <c r="E8" s="3">
         <v>64400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>78300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>312100</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3">
+        <v>78200</v>
+      </c>
+      <c r="I8" s="3">
         <v>78300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>75000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E9" s="3">
         <v>34200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>39500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>160800</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3">
+        <v>42000</v>
+      </c>
+      <c r="I9" s="3">
         <v>39500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>37500</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E10" s="3">
         <v>30200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>151300</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3">
+        <v>36200</v>
+      </c>
+      <c r="I10" s="3">
         <v>38800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>37500</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,19 +839,20 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
         <v>1600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1700</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -847,19 +861,22 @@
         <v>1500</v>
       </c>
       <c r="I12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J12" s="3">
         <v>1400</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -904,58 +924,64 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E15" s="3">
         <v>9000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8900</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I15" s="3">
         <v>9900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9800</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E17" s="3">
         <v>65900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>77600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>308400</v>
       </c>
-      <c r="G17" s="3">
-        <v>300</v>
-      </c>
       <c r="H17" s="3">
+        <v>77300</v>
+      </c>
+      <c r="I17" s="3">
         <v>77100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>76300</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3700</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3">
+        <v>900</v>
+      </c>
+      <c r="I18" s="3">
         <v>1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,136 +1076,149 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-59200</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E21" s="3">
         <v>10400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12500</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="3">
+        <v>13400</v>
+      </c>
+      <c r="I21" s="3">
         <v>13700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="E22" s="3">
         <v>13000</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3">
+        <v>13000</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I22" s="3">
         <v>12400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-55600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>900</v>
       </c>
       <c r="H23" s="3">
         <v>-11200</v>
       </c>
       <c r="I23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-13400</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,7 +1226,7 @@
         <v>400</v>
       </c>
       <c r="E24" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
@@ -1189,22 +1235,25 @@
         <v>200</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-55700</v>
       </c>
-      <c r="G26" s="3">
-        <v>700</v>
-      </c>
       <c r="H26" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-11400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13500</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-53300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
       <c r="H27" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-13100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>59200</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-53300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-200</v>
-      </c>
       <c r="H33" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-13100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-53300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-200</v>
-      </c>
       <c r="H35" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-13100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1706,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E41" s="3">
         <v>34100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>50600</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3">
+        <v>43400</v>
+      </c>
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,22 +1774,25 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E43" s="3">
         <v>89100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>103300</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>97000</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,28 +1844,31 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E45" s="3">
         <v>14200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15400</v>
       </c>
-      <c r="F45" s="3">
-        <v>148300</v>
-      </c>
       <c r="G45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -1777,43 +1876,49 @@
       <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E46" s="3">
         <v>137500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>169400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>148300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>200</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1826,38 +1931,41 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>233300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>232200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>230800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E48" s="3">
         <v>31100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>34700</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1876,20 +1984,23 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>510900</v>
+      </c>
+      <c r="E49" s="3">
         <v>515200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>518600</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,23 +2089,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
         <v>3000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>566700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>682400</v>
+      </c>
+      <c r="E54" s="3">
         <v>686700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>725900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>714900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>233900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>232900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>232000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>200</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,55 +2226,59 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E57" s="3">
         <v>30800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>31600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>31300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E58" s="3">
         <v>13100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>41400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11700</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -2152,95 +2286,104 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E59" s="3">
         <v>5400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E60" s="3">
         <v>49300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>76900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>48200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>467200</v>
+      </c>
+      <c r="E61" s="3">
         <v>466000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>467500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>468900</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2256,22 +2399,25 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E62" s="3">
         <v>15200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>8100</v>
       </c>
       <c r="H62" s="3">
         <v>8100</v>
@@ -2279,8 +2425,8 @@
       <c r="I62" s="3">
         <v>8100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>8100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>535600</v>
+      </c>
+      <c r="E66" s="3">
         <v>530500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>558300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>531100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>100</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-245600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-232900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-218000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-205500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>500</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>146700</v>
+      </c>
+      <c r="E76" s="3">
         <v>156300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>167600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>183800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>225000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>224300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>223700</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-53300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-200</v>
-      </c>
       <c r="H81" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-13100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,31 +3031,32 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E83" s="3">
         <v>12000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11800</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H83" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="I83" s="3">
         <v>12500</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>12500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E89" s="3">
         <v>20700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5100</v>
       </c>
-      <c r="F94" s="3">
-        <v>214800</v>
-      </c>
       <c r="G94" s="3">
-        <v>-224900</v>
+        <v>-5300</v>
       </c>
       <c r="H94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I94" s="3">
         <v>-3000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2200</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,63 +3584,69 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-33500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>24500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-187800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>231300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3405,36 +3654,42 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>19500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>KLDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,180 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E8" s="3">
         <v>72300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>64400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>78300</v>
       </c>
-      <c r="G8" s="3">
-        <v>312100</v>
-      </c>
       <c r="H8" s="3">
+        <v>80500</v>
+      </c>
+      <c r="I8" s="3">
         <v>78200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>78300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>75000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E9" s="3">
         <v>37700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>34200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>39500</v>
       </c>
-      <c r="G9" s="3">
-        <v>160800</v>
-      </c>
       <c r="H9" s="3">
+        <v>41900</v>
+      </c>
+      <c r="I9" s="3">
         <v>42000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>39500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>37500</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E10" s="3">
         <v>34600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>30200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>38800</v>
       </c>
-      <c r="G10" s="3">
-        <v>151300</v>
-      </c>
       <c r="H10" s="3">
+        <v>38600</v>
+      </c>
+      <c r="I10" s="3">
         <v>36200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>37500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,22 +852,23 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1700</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="H12" s="3">
         <v>1500</v>
@@ -864,19 +877,22 @@
         <v>1500</v>
       </c>
       <c r="J12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K12" s="3">
         <v>1400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -928,60 +947,66 @@
         <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E15" s="3">
         <v>9200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8900</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I15" s="3">
         <v>9500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9800</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E17" s="3">
         <v>72200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>65900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>77600</v>
       </c>
-      <c r="G17" s="3">
-        <v>308400</v>
-      </c>
       <c r="H17" s="3">
+        <v>85900</v>
+      </c>
+      <c r="I17" s="3">
         <v>77300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>77100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>76300</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
-        <v>3700</v>
-      </c>
       <c r="H18" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="I18" s="3">
         <v>900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,69 +1119,75 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>-59200</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E21" s="3">
         <v>12300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12500</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>13400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1156,104 +1195,113 @@
         <v>12400</v>
       </c>
       <c r="E22" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="F22" s="3">
         <v>13000</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>13000</v>
       </c>
       <c r="H22" s="3">
+        <v>11900</v>
+      </c>
+      <c r="I22" s="3">
         <v>12000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-55600</v>
-      </c>
       <c r="H23" s="3">
-        <v>-11200</v>
+        <v>-17500</v>
       </c>
       <c r="I23" s="3">
         <v>-11200</v>
       </c>
       <c r="J23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-13400</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>400</v>
       </c>
       <c r="F24" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-55700</v>
-      </c>
       <c r="H26" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="I26" s="3">
         <v>-11300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13500</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-53300</v>
-      </c>
       <c r="H27" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-12100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,69 +1575,75 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>59200</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12500</v>
       </c>
-      <c r="G33" s="3">
-        <v>-53300</v>
-      </c>
       <c r="H33" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-12100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12500</v>
       </c>
-      <c r="G35" s="3">
-        <v>-53300</v>
-      </c>
       <c r="H35" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-12100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E41" s="3">
         <v>43800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>50600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>43400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,26 +1866,29 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E43" s="3">
         <v>86100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>89100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>103300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>97000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,8 +1904,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,31 +1942,34 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E45" s="3">
         <v>11100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -1879,46 +1977,52 @@
       <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>143100</v>
+      </c>
+      <c r="E46" s="3">
         <v>141000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>137500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>169400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>148300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1934,43 +2038,46 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>233300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>232200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>230800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E48" s="3">
         <v>27800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>34700</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>38300</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1987,25 +2094,28 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>508800</v>
+      </c>
+      <c r="E49" s="3">
         <v>510900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>515200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>518600</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>525700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2022,8 +2132,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,25 +2208,28 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3300</v>
       </c>
-      <c r="G52" s="3">
-        <v>566700</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>2600</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2127,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>679700</v>
+      </c>
+      <c r="E54" s="3">
         <v>682400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>686700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>725900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>714900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>233900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>232900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>232000</v>
-      </c>
-      <c r="K54" s="3">
-        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>200</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,61 +2356,65 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E57" s="3">
         <v>36000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>31600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>31300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E58" s="3">
         <v>11100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>41400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11700</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -2289,16 +2422,19 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2306,87 +2442,93 @@
         <v>4700</v>
       </c>
       <c r="E59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F59" s="3">
         <v>5400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E60" s="3">
         <v>51800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>49300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>76900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>48200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>472600</v>
+      </c>
+      <c r="E61" s="3">
         <v>467200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>466000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>467500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>468900</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2402,25 +2544,28 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E62" s="3">
         <v>16700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>8100</v>
       </c>
       <c r="I62" s="3">
         <v>8100</v>
@@ -2428,8 +2573,8 @@
       <c r="J62" s="3">
         <v>8100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>8100</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -2437,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>537500</v>
+      </c>
+      <c r="E66" s="3">
         <v>535600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>530500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>558300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>531100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>100</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-255400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-245600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-232900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-218000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-205500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>500</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
       <c r="L72" s="3">
         <v>0</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E76" s="3">
         <v>146700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>156300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>167600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>183800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>225000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>224300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>223700</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
         <v>0</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12500</v>
       </c>
-      <c r="G81" s="3">
-        <v>-53300</v>
-      </c>
       <c r="H81" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-12100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,34 +3229,35 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E83" s="3">
         <v>12200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11800</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
         <v>12600</v>
-      </c>
-      <c r="I83" s="3">
-        <v>12500</v>
       </c>
       <c r="J83" s="3">
         <v>12500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>12500</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3067,8 +3265,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E89" s="3">
         <v>16600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>20700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
         <v>-4100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,69 +3829,75 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-33500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>24500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-187800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>231300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -3657,39 +3905,45 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E102" s="3">
         <v>9700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>19500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>KLDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E8" s="3">
         <v>74600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>72300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>64400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>78300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>80500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>78200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>78300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>75000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E9" s="3">
         <v>36300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>37700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>34200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>39500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>41900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>42000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>39500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E10" s="3">
         <v>38300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>34600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>30200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>38800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>38600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>36200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>38800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,25 +866,26 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="3">
         <v>2000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1500</v>
       </c>
       <c r="I12" s="3">
         <v>1500</v>
@@ -880,19 +894,22 @@
         <v>1500</v>
       </c>
       <c r="K12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,13 +946,16 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>7300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -946,67 +966,73 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>7200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E15" s="3">
         <v>8800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>9900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9800</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>79400</v>
+      </c>
+      <c r="E17" s="3">
         <v>72000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>72200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>65900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>77600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>85900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>77300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>77100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>76300</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E18" s="3">
         <v>2600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,198 +1143,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E21" s="3">
         <v>14300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12500</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>13400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="E22" s="3">
         <v>12400</v>
       </c>
       <c r="F22" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="G22" s="3">
         <v>13000</v>
       </c>
       <c r="H22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I22" s="3">
         <v>11900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-17500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-11200</v>
       </c>
       <c r="J23" s="3">
         <v>-11200</v>
       </c>
       <c r="K23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-13400</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>400</v>
       </c>
       <c r="G24" s="3">
+        <v>400</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-17800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13500</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E41" s="3">
         <v>51200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>43800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>50600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>43400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,29 +1959,32 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>83600</v>
+      </c>
+      <c r="E43" s="3">
         <v>84000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>86100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>89100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>103300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>97000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,34 +2041,37 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E45" s="3">
         <v>7900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -1980,49 +2079,55 @@
       <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>144200</v>
+      </c>
+      <c r="E46" s="3">
         <v>143100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>141000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>137500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>169400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>148300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2041,47 +2146,50 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>233300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>232200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>230800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E48" s="3">
         <v>25200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>34700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>38300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,29 +2205,32 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>501800</v>
+      </c>
+      <c r="E49" s="3">
         <v>508800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>510900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>515200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>518600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>525700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,29 +2328,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E52" s="3">
         <v>2700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>672400</v>
+      </c>
+      <c r="E54" s="3">
         <v>679700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>682400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>686700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>725900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>714900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>233900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>232900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>232000</v>
-      </c>
-      <c r="L54" s="3">
-        <v>200</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>200</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,67 +2487,71 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E57" s="3">
         <v>33500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>30800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>31600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>31300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="3">
         <v>10900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>41400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11700</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -2425,113 +2559,122 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4700</v>
+        <v>3200</v>
       </c>
       <c r="E59" s="3">
         <v>4700</v>
       </c>
       <c r="F59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G59" s="3">
         <v>5400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E60" s="3">
         <v>49100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>51800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>49300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>76900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>48200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>494300</v>
+      </c>
+      <c r="E61" s="3">
         <v>472600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>467200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>466000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>467500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>468900</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2547,28 +2690,31 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E62" s="3">
         <v>15800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>8100</v>
       </c>
       <c r="J62" s="3">
         <v>8100</v>
@@ -2576,8 +2722,8 @@
       <c r="K62" s="3">
         <v>8100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>8100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>550200</v>
+      </c>
+      <c r="E66" s="3">
         <v>537500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>535600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>530500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>558300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>531100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-270300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-255400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-245600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-232900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-218000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-205500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>500</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>122100</v>
+      </c>
+      <c r="E76" s="3">
         <v>142200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>146700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>156300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>167600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>183800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>225000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>224300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>223700</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,37 +3428,38 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E83" s="3">
         <v>11700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11800</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
         <v>12600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>12500</v>
       </c>
       <c r="K83" s="3">
         <v>12500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>12500</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E89" s="3">
         <v>14500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>16600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3">
         <v>-4100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,75 +4075,81 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-33500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>24500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-187800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>231300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>7400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-16500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>19500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>KLDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>81700</v>
+      </c>
+      <c r="E8" s="3">
         <v>75500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>74600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>72300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>64400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>78300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>80500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>78200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>78300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>75000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E9" s="3">
         <v>37400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>36300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>37700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>34200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>39500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>41900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>42000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>37500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E10" s="3">
         <v>38100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>34600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>30200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>38800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>36200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>38800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,28 +880,29 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E12" s="3">
         <v>2200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1500</v>
       </c>
       <c r="J12" s="3">
         <v>1500</v>
@@ -897,19 +911,22 @@
         <v>1500</v>
       </c>
       <c r="L12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M12" s="3">
         <v>1400</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,17 +966,20 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>7300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -969,70 +989,76 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>7200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E15" s="3">
         <v>7600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>9000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9800</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>77500</v>
+      </c>
+      <c r="E17" s="3">
         <v>79400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>72000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>72200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>65900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>77600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>85900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>77300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>77100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>76300</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,213 +1177,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E21" s="3">
         <v>7800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12500</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>13400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E22" s="3">
         <v>12300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>12400</v>
       </c>
       <c r="F22" s="3">
         <v>12400</v>
       </c>
       <c r="G22" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="H22" s="3">
         <v>13000</v>
       </c>
       <c r="I22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J22" s="3">
         <v>11900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-11200</v>
       </c>
       <c r="K23" s="3">
         <v>-11200</v>
       </c>
       <c r="L23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-13400</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>400</v>
       </c>
       <c r="H24" s="3">
+        <v>400</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13500</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E41" s="3">
         <v>47800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>51200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>43800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>50600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>43400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,32 +2052,35 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>95700</v>
+      </c>
+      <c r="E43" s="3">
         <v>83600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>84000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>86100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>89100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>103300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>97000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,37 +2140,40 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E45" s="3">
         <v>12800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2082,52 +2181,58 @@
       <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>150300</v>
+      </c>
+      <c r="E46" s="3">
         <v>144200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>143100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>141000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>137500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>169400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>148300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2149,50 +2254,53 @@
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>233300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>232200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>230800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E48" s="3">
         <v>23300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>34700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>38300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,32 +2316,35 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>496900</v>
+      </c>
+      <c r="E49" s="3">
         <v>501800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>508800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>510900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>515200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>518600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>525700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,32 +2448,35 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E52" s="3">
         <v>3100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>672200</v>
+      </c>
+      <c r="E54" s="3">
         <v>672400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>679700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>682400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>686700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>725900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>714900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>233900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>232900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>232000</v>
-      </c>
-      <c r="M54" s="3">
-        <v>200</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>200</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,49 +2618,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E57" s="3">
         <v>32100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>30800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>31600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>31300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2538,23 +2672,23 @@
         <v>3000</v>
       </c>
       <c r="E58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F58" s="3">
         <v>10900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>41400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11700</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -2562,122 +2696,131 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E59" s="3">
         <v>3200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>4700</v>
       </c>
       <c r="F59" s="3">
         <v>4700</v>
       </c>
       <c r="G59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H59" s="3">
         <v>5400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E60" s="3">
         <v>38300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>49100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>51800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>49300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>76900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>48200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>496700</v>
+      </c>
+      <c r="E61" s="3">
         <v>494300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>472600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>467200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>466000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>467500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>468900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2693,31 +2836,34 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E62" s="3">
         <v>17600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>8100</v>
       </c>
       <c r="K62" s="3">
         <v>8100</v>
@@ -2725,8 +2871,8 @@
       <c r="L62" s="3">
         <v>8100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>8100</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>557200</v>
+      </c>
+      <c r="E66" s="3">
         <v>550200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>537500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>535600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>530500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>558300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>531100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>100</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-279100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-270300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-255400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-245600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-232900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-218000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-205500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>500</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
       <c r="N72" s="3">
         <v>0</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E76" s="3">
         <v>122100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>142200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>146700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>156300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>167600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>183800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>225000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>224300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>223700</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
         <v>0</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,40 +3627,41 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E83" s="3">
         <v>9800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11800</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>12600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>12500</v>
       </c>
       <c r="L83" s="3">
         <v>12500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>12500</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2800</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2200</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,81 +4321,87 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-33500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>24500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-187800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>231300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
@@ -4160,45 +4409,51 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-16500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>KLDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E8" s="3">
         <v>81700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>75500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>74600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>72300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>64400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>78300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>80500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>78200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>78300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>75000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E9" s="3">
         <v>40900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>37400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>36300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>37700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>34200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>39500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>41900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>42000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>37500</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E10" s="3">
         <v>40800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>38300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>34600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>30200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>38600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>36200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>37500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,31 +894,32 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E12" s="3">
         <v>2400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1700</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1500</v>
       </c>
       <c r="K12" s="3">
         <v>1500</v>
@@ -914,19 +928,22 @@
         <v>1500</v>
       </c>
       <c r="M12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N12" s="3">
         <v>1400</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,20 +986,23 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>22500</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>7300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,29 +1012,32 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>7200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1022,43 +1045,46 @@
         <v>7500</v>
       </c>
       <c r="E15" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F15" s="3">
         <v>7600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>9200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>9000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9800</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>98800</v>
+      </c>
+      <c r="E17" s="3">
         <v>77500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>79400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>72000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>72200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>65900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>77600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>85900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>77300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>77100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>76300</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E18" s="3">
         <v>4200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
       </c>
       <c r="J20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E21" s="3">
         <v>13700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>13400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E22" s="3">
         <v>12500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>12400</v>
       </c>
       <c r="G22" s="3">
         <v>12400</v>
       </c>
       <c r="H22" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="I22" s="3">
         <v>13000</v>
       </c>
       <c r="J22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K22" s="3">
         <v>11900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-17500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-11200</v>
       </c>
       <c r="L23" s="3">
         <v>-11200</v>
       </c>
       <c r="M23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-13400</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>400</v>
       </c>
       <c r="I24" s="3">
+        <v>400</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-17800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13500</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E41" s="3">
         <v>42900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>47800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>51200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>43800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>34100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>50600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>43400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,35 +2145,38 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>97600</v>
+      </c>
+      <c r="E43" s="3">
         <v>95700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>83600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>84000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>86100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>89100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>103300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>97000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,40 +2239,43 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E45" s="3">
         <v>11700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2184,126 +2283,135 @@
       <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>152400</v>
+      </c>
+      <c r="E46" s="3">
         <v>150300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>144200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>143100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>141000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>137500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>169400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>148300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>233300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>232200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>230800</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E48" s="3">
         <v>22600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>23300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>34700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>38300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,35 +2427,38 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>468000</v>
+      </c>
+      <c r="E49" s="3">
         <v>496900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>501800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>508800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>510900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>515200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>518600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>525700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,35 +2568,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
         <v>2400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>644800</v>
+      </c>
+      <c r="E54" s="3">
         <v>672200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>672400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>679700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>682400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>686700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>725900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>714900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>233900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>232900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>232000</v>
-      </c>
-      <c r="N54" s="3">
-        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E57" s="3">
         <v>35000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>30800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>31600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>31300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2675,23 +2809,23 @@
         <v>3000</v>
       </c>
       <c r="F58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G58" s="3">
         <v>10900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>41400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11700</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -2699,131 +2833,140 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E59" s="3">
         <v>4600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>4700</v>
       </c>
       <c r="G59" s="3">
         <v>4700</v>
       </c>
       <c r="H59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I59" s="3">
         <v>5400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E60" s="3">
         <v>42600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>38300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>49100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>51800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>49300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>76900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>48200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>499200</v>
+      </c>
+      <c r="E61" s="3">
         <v>496700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>494300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>472600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>467200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>466000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>467500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>468900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2839,34 +2982,37 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E62" s="3">
         <v>17800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>8100</v>
       </c>
       <c r="L62" s="3">
         <v>8100</v>
@@ -2874,8 +3020,8 @@
       <c r="M62" s="3">
         <v>8100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>8100</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>560000</v>
+      </c>
+      <c r="E66" s="3">
         <v>557200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>550200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>537500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>535600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>530500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>558300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>531100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>100</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-308700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-279100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-270300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-255400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-245600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-232900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-218000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-205500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>500</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
       <c r="O72" s="3">
         <v>0</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E76" s="3">
         <v>115000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>122100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>142200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>146700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>156300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>167600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>183800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>225000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>224300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>223700</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
         <v>0</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,43 +3826,44 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E83" s="3">
         <v>9700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11800</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>12600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>12500</v>
       </c>
       <c r="M83" s="3">
         <v>12500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>12500</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>14500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>20700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2800</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>-4100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,78 +4579,81 @@
         <v>-1000</v>
       </c>
       <c r="E100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-33500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>24500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-187800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>231300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-16500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>19500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,244 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>81900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>82300</v>
+      </c>
+      <c r="F8" s="3">
         <v>81100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>81700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>75500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>74600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>72300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>64400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>78300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>80500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>78200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>78300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>75000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43800</v>
+      </c>
+      <c r="F9" s="3">
         <v>41900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>40900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>37400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>36300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>37700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>34200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>39500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>41900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>42000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>39500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>37500</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F10" s="3">
         <v>39200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>40800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>38100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>38300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>34600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>30200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>38800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>38600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>36200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>38800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>37500</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F12" s="3">
         <v>2800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>2400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>2200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1700</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1500</v>
       </c>
       <c r="M12" s="3">
         <v>1500</v>
       </c>
       <c r="N12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P12" s="3">
         <v>1400</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,102 +1022,120 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>22500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>7300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>7200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F15" s="3">
         <v>7500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>7500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>7600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>8800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>9200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>9000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>8900</v>
-      </c>
-      <c r="K15" s="3">
-        <v>9900</v>
-      </c>
-      <c r="L15" s="3">
-        <v>9500</v>
       </c>
       <c r="M15" s="3">
         <v>9900</v>
       </c>
       <c r="N15" s="3">
+        <v>9500</v>
+      </c>
+      <c r="O15" s="3">
+        <v>9900</v>
+      </c>
+      <c r="P15" s="3">
         <v>9800</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>77400</v>
+      </c>
+      <c r="F17" s="3">
         <v>98800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>77500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>79400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>72000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>72200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>65900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>77600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>85900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>77300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>77100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>76300</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-17700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>4200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>2600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1277,275 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>13700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>7800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>14300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>12300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>10400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>12500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>13400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>13700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>11200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E22" s="3">
         <v>12800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G22" s="3">
         <v>12500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>12300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>12400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>12400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>13000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>13000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>11900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>12000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>12400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>12100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-30500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-8600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-14200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-9800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-14600</v>
       </c>
       <c r="J23" s="3">
         <v>-12300</v>
       </c>
       <c r="K23" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-17500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-11200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-11200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-13400</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>200</v>
+      </c>
+      <c r="P24" s="3">
+        <v>100</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-29500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-14900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-9800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-12700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-14900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-12500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-17800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-11300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-11400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-13500</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-29500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-8900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-14900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-9800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-12700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-14900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-12500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-15400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-12100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-13100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-14100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-29500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-8900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-14900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-9800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-12700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-14900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-12500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-15400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-12100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-13100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-14100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-29500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-8900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-14900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-9800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-12700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-14900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-12500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-15400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-12100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-13100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-14100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>46500</v>
+      </c>
+      <c r="F41" s="3">
         <v>41800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>42900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>47800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>51200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>43800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>34100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>50600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>43400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,41 +2327,47 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>93300</v>
+      </c>
+      <c r="F43" s="3">
         <v>97600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>95700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>83600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>84000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>86100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>89100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>103300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>97000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2380,14 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,102 +2433,120 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F45" s="3">
         <v>13000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>11700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>12800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>7900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>11100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>14200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>15400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>7900</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>154100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>150500</v>
+      </c>
+      <c r="F46" s="3">
         <v>152400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>150300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>144200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>143100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>141000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>137500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>169400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>148300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2362,62 +2571,68 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
         <v>233300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>232200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>230800</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>22300</v>
+      </c>
+      <c r="F48" s="3">
         <v>21600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>22600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>23300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>25200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>27800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>31100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>34700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>38300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,41 +2645,47 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>450500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>455100</v>
+      </c>
+      <c r="F49" s="3">
         <v>468000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>496900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>501800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>508800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>510900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>515200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>518600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>525700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,41 +2804,47 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>633000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>636400</v>
+      </c>
+      <c r="F54" s="3">
         <v>644800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>672200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>672400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>679700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>682400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>686700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>725900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>714900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>233900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>232900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>232000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +3009,63 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F57" s="3">
         <v>35400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>35000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>32100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>33500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>36000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>30800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>31600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>31300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2812,167 +3079,185 @@
         <v>3000</v>
       </c>
       <c r="G58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I58" s="3">
         <v>10900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>11100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>13100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>41400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>11700</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F59" s="3">
         <v>4900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>35500</v>
+      </c>
+      <c r="F60" s="3">
         <v>43200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>42600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>38300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>49100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>51800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>49300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>76900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>48200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>510300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>507700</v>
+      </c>
+      <c r="F61" s="3">
         <v>499200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>496700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>494300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>472600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>467200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>466000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>467500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>468900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2985,55 +3270,67 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17600</v>
+        <v>15500</v>
       </c>
       <c r="E62" s="3">
-        <v>17800</v>
+        <v>15300</v>
       </c>
       <c r="F62" s="3">
         <v>17600</v>
       </c>
       <c r="G62" s="3">
+        <v>17800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I62" s="3">
         <v>15800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>16700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>15200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>13900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>14100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>8100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>8100</v>
       </c>
       <c r="N62" s="3">
         <v>8100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="P62" s="3">
+        <v>8100</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>565800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>558600</v>
+      </c>
+      <c r="F66" s="3">
         <v>560000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>557200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>550200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>537500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>535600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>530500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>558300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>531100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-325500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-316000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-308700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-279100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-270300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-255400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-245600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-232900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-218000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-205500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>500</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>77900</v>
+      </c>
+      <c r="F76" s="3">
         <v>84700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>115000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>122100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>142200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>146700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>156300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>167600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>183800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>225000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>224300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>223700</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-29500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-8900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-14900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-9800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-12700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-14900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-12500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-15400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-12100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-13100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-14100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F83" s="3">
         <v>9900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>9700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>9800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>11700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>12200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>12000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>11800</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>12600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>12500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>12500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F89" s="3">
         <v>2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>14500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>16600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>20700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-12000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-7500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>-4100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-4300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-4800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-2200</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-5200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-4500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-33500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>24500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-187800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>231300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4626,89 +5123,101 @@
         <v>-200</v>
       </c>
       <c r="E101" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="F101" s="3">
         <v>-200</v>
       </c>
       <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-4900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>7400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>9700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-16500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>7200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>19500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E8" s="3">
         <v>81900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>82300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>81100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>81700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>75500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>74600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>72300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>64400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>78300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>80500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>78200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>78300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>75000</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E9" s="3">
         <v>43300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>43800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>41900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>40900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>37400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>36300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>37700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>34200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>41900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>42000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>39500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>37500</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E10" s="3">
         <v>38600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>39200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>40800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>38100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>34600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>30200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>36200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>38800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>37500</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,40 +935,41 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E12" s="3">
         <v>3100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1700</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1500</v>
       </c>
       <c r="N12" s="3">
         <v>1500</v>
@@ -964,19 +978,22 @@
         <v>1500</v>
       </c>
       <c r="P12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q12" s="3">
         <v>1400</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1040,17 +1060,17 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>22500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>7300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1060,29 +1080,32 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>7200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1090,52 +1113,55 @@
         <v>4900</v>
       </c>
       <c r="E15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F15" s="3">
         <v>5200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>7500</v>
       </c>
       <c r="G15" s="3">
         <v>7500</v>
       </c>
       <c r="H15" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I15" s="3">
         <v>7600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>9500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>9900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>9800</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>73900</v>
+      </c>
+      <c r="E17" s="3">
         <v>78600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>77400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>98800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>77500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>79400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>72000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>72200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>65900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>77600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>85900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>77300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>77100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>76300</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
       </c>
       <c r="M20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E21" s="3">
         <v>11300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>13400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E22" s="3">
         <v>12700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>12800</v>
       </c>
       <c r="F22" s="3">
         <v>12800</v>
       </c>
       <c r="G22" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H22" s="3">
         <v>12500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>12400</v>
       </c>
       <c r="J22" s="3">
         <v>12400</v>
       </c>
       <c r="K22" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="L22" s="3">
         <v>13000</v>
       </c>
       <c r="M22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="N22" s="3">
         <v>11900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12100</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-30500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-11200</v>
       </c>
       <c r="O23" s="3">
         <v>-11200</v>
       </c>
       <c r="P23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>400</v>
       </c>
       <c r="L24" s="3">
+        <v>400</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-29500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-29500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-13100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
       </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-29500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-13100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-29500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-13100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E41" s="3">
         <v>38400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>46500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>41800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>42900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>47800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>51200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>43800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>50600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,44 +2423,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>91200</v>
+      </c>
+      <c r="E43" s="3">
         <v>99000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>93300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>97600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>95700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>83600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>84000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>86100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>89100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>103300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>97000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,49 +2535,52 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E45" s="3">
         <v>16700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2489,64 +2588,70 @@
       <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>143200</v>
+      </c>
+      <c r="E46" s="3">
         <v>154100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>150500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>152400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>150300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>144200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>143100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>141000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>137500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>169400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>148300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>200</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2577,65 +2682,68 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
         <v>233300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>232200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>230800</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E48" s="3">
         <v>20000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>23300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>25200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>27800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>34700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>38300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,44 +2759,47 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>443200</v>
+      </c>
+      <c r="E49" s="3">
         <v>450500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>455100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>468000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>496900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>501800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>508800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>510900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>515200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>518600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>525700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,44 +2927,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E52" s="3">
         <v>8400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>614300</v>
+      </c>
+      <c r="E54" s="3">
         <v>633000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>636400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>644800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>672200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>672400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>679700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>682400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>686700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>725900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>714900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>233900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>232900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>232000</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>200</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E57" s="3">
         <v>32800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3085,23 +3219,23 @@
         <v>3000</v>
       </c>
       <c r="I58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J58" s="3">
         <v>10900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>41400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11700</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
@@ -3109,158 +3243,167 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>4700</v>
       </c>
       <c r="J59" s="3">
         <v>4700</v>
       </c>
       <c r="K59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L59" s="3">
         <v>5400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E60" s="3">
         <v>40000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>35500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>43200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>42600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>38300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>49100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>51800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>49300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>76900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>48200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>100</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E61" s="3">
         <v>510300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>507700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>499200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>496700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>494300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>472600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>467200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>466000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>467500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>468900</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3276,43 +3419,46 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E62" s="3">
         <v>15500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>17800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>17600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>8100</v>
       </c>
       <c r="O62" s="3">
         <v>8100</v>
@@ -3320,8 +3466,8 @@
       <c r="P62" s="3">
         <v>8100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
+      <c r="Q62" s="3">
+        <v>8100</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>562600</v>
+      </c>
+      <c r="E66" s="3">
         <v>565800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>558600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>560000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>557200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>550200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>537500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>535600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>530500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>558300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>531100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>100</v>
       </c>
       <c r="R66" s="3">
         <v>100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-336800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-325500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-316000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-308700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-279100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-270300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-255400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-245600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-232900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-218000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-205500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>500</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
       <c r="R72" s="3">
         <v>0</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E76" s="3">
         <v>67200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>77900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>84700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>115000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>122100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>142200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>146700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>156300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>167600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>183800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>225000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>224300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>223700</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
       <c r="R76" s="3">
         <v>0</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-29500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-13100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,52 +4422,53 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E83" s="3">
         <v>7900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11800</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
         <v>12600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>12500</v>
       </c>
       <c r="P83" s="3">
         <v>12500</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>12500</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>14500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>16600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2800</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3">
         <v>-4100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,66 +5304,72 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2400</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-1000</v>
       </c>
       <c r="G100" s="3">
         <v>-1000</v>
       </c>
       <c r="H100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-33500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>24500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-187800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>231300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="E101" s="3">
         <v>-200</v>
@@ -5129,37 +5378,37 @@
         <v>-200</v>
       </c>
       <c r="G101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-16500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>KLDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E8" s="3">
         <v>75200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>81900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>82300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>81100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>81700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>75500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>74600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>72300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>64400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>78300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>80500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>78200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>78300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>75000</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E9" s="3">
         <v>39600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>43300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>43800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>41900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>40900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>37400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>36300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>34200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>41900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>42000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>39500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>37500</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E10" s="3">
         <v>35600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>38500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>39200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>40800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>38300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>34600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>30200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>38600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>36200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>37500</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,34 +959,34 @@
         <v>3600</v>
       </c>
       <c r="E12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F12" s="3">
         <v>3100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1700</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1500</v>
       </c>
       <c r="O12" s="3">
         <v>1500</v>
@@ -981,19 +995,22 @@
         <v>1500</v>
       </c>
       <c r="Q12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R12" s="3">
         <v>1400</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1063,17 +1083,17 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>22500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>7300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,29 +1103,32 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>7200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1116,52 +1139,55 @@
         <v>4900</v>
       </c>
       <c r="F15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G15" s="3">
         <v>5200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>7500</v>
       </c>
       <c r="H15" s="3">
         <v>7500</v>
       </c>
       <c r="I15" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J15" s="3">
         <v>7600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>9900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>9500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>9900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>9800</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>73900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>78600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>77400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>98800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>77500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>79400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>72000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>72200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>65900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>77600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>85900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>77300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>77100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>76300</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1346,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
       </c>
       <c r="N20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>9700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>14300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>13400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>13700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E22" s="3">
         <v>12900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>12800</v>
       </c>
       <c r="G22" s="3">
         <v>12800</v>
       </c>
       <c r="H22" s="3">
+        <v>12800</v>
+      </c>
+      <c r="I22" s="3">
         <v>12500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>12400</v>
       </c>
       <c r="K22" s="3">
         <v>12400</v>
       </c>
       <c r="L22" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="M22" s="3">
         <v>13000</v>
       </c>
       <c r="N22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="O22" s="3">
         <v>11900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>12100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-30500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-11200</v>
       </c>
       <c r="P23" s="3">
         <v>-11200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-13400</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>400</v>
       </c>
       <c r="M24" s="3">
+        <v>400</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-29500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13500</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-29500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-14100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
       </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-29500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-14100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-29500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-14100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E41" s="3">
         <v>37500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>38400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>46500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>41800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>42900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>47800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>51200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>43800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>34100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>50600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,47 +2516,50 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E43" s="3">
         <v>91200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>99000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>93300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>97600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>95700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>83600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>84000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>86100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>89100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>103300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>97000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,52 +2634,55 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E45" s="3">
         <v>14400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2591,67 +2690,73 @@
       <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>141100</v>
+      </c>
+      <c r="E46" s="3">
         <v>143200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>154100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>150500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>152400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>150300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>144200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>143100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>141000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>137500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>169400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>148300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>200</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2685,68 +2790,71 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3">
         <v>233300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>232200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>230800</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E48" s="3">
         <v>19600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>20000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>21600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>23300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>25200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>34700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>38300</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,47 +2870,50 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>436700</v>
+      </c>
+      <c r="E49" s="3">
         <v>443200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>450500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>455100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>468000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>496900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>501800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>508800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>510900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>515200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>518600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>525700</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2939,38 +3059,38 @@
         <v>8300</v>
       </c>
       <c r="E52" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F52" s="3">
         <v>8400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>603800</v>
+      </c>
+      <c r="E54" s="3">
         <v>614300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>633000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>636400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>644800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>672200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>672400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>679700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>682400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>686700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>725900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>714900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>233900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>232900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>232000</v>
-      </c>
-      <c r="R54" s="3">
-        <v>200</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>200</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E57" s="3">
         <v>28800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>35000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3222,23 +3356,23 @@
         <v>3000</v>
       </c>
       <c r="J58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K58" s="3">
         <v>10900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>41400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11700</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
@@ -3246,167 +3380,176 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E59" s="3">
         <v>3500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>4700</v>
       </c>
       <c r="K59" s="3">
         <v>4700</v>
       </c>
       <c r="L59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M59" s="3">
         <v>5400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E60" s="3">
         <v>35300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>40000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>35500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>43200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>42600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>38300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>49100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>51800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>49300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>76900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>48200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>100</v>
       </c>
       <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>515700</v>
+      </c>
+      <c r="E61" s="3">
         <v>513000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>510300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>507700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>499200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>496700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>494300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>472600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>467200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>466000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>467500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>468900</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3422,46 +3565,49 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E62" s="3">
         <v>14400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>17600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>17800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>8100</v>
       </c>
       <c r="P62" s="3">
         <v>8100</v>
@@ -3469,8 +3615,8 @@
       <c r="Q62" s="3">
         <v>8100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
+      <c r="R62" s="3">
+        <v>8100</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>572900</v>
+      </c>
+      <c r="E66" s="3">
         <v>562600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>565800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>558600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>560000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>557200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>550200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>537500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>535600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>530500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>558300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>531100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>100</v>
       </c>
       <c r="S66" s="3">
         <v>100</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-354200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-336800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-325500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-316000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-308700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-279100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-270300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-255400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-245600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-232900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-218000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-205500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>500</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
       <c r="S72" s="3">
         <v>0</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E76" s="3">
         <v>51700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>67200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>77900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>84700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>115000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>122100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>142200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>146700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>156300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>167600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>183800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>225000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>224300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>223700</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
       <c r="S76" s="3">
         <v>0</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-29500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-14100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,55 +4621,56 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E83" s="3">
         <v>7800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11800</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
         <v>12600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>12500</v>
       </c>
       <c r="Q83" s="3">
         <v>12500</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>12500</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>5500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>14500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>20700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3">
         <v>-4100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2200</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2200</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1000</v>
       </c>
       <c r="H100" s="3">
         <v>-1000</v>
       </c>
       <c r="I100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J100" s="3">
         <v>2700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-33500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>24500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-187800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>231300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5372,7 +5621,7 @@
         <v>-600</v>
       </c>
       <c r="E101" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="F101" s="3">
         <v>-200</v>
@@ -5381,37 +5630,37 @@
         <v>-200</v>
       </c>
       <c r="H101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>KLDI</t>
   </si>
@@ -1211,8 +1211,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>77500</v>
       </c>
       <c r="E17" s="3">
         <v>73900</v>
@@ -1270,8 +1270,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-3000</v>
       </c>
       <c r="E18" s="3">
         <v>1300</v>
@@ -1352,8 +1352,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>500</v>
@@ -1411,8 +1411,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>5100</v>
       </c>
       <c r="E21" s="3">
         <v>9700</v>
@@ -1706,8 +1706,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-17400</v>
       </c>
       <c r="E26" s="3">
         <v>-11200</v>
@@ -1765,8 +1765,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-17400</v>
       </c>
       <c r="E27" s="3">
         <v>-11200</v>
@@ -2060,8 +2060,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>-500</v>
@@ -2119,8 +2119,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-17400</v>
       </c>
       <c r="E33" s="3">
         <v>-11200</v>
@@ -2237,8 +2237,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-17400</v>
       </c>
       <c r="E35" s="3">
         <v>-11200</v>
@@ -4545,8 +4545,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-17400</v>
       </c>
       <c r="E81" s="3">
         <v>-11200</v>

--- a/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>KLDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,295 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>85800</v>
+      </c>
+      <c r="F8" s="3">
         <v>74500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>75200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>81900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>82300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>81100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>81700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>75500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>74600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>72300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>64400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>78300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>80500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>78200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>78300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>75000</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>41700</v>
+      </c>
+      <c r="F9" s="3">
         <v>40800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>39600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>43300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>43800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>41900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>40900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>37400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>36300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>37700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>34200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>39500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>41900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>42000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>39500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>37500</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>44100</v>
+      </c>
+      <c r="F10" s="3">
         <v>33700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>35600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>38600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>38500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>39200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>40800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>38100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>38300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>34600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>30200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>38800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>38600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>36200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>38800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>37500</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +975,75 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F12" s="3">
         <v>3600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>3100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>2800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>2400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>2000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1700</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1500</v>
       </c>
       <c r="Q12" s="3">
         <v>1500</v>
       </c>
       <c r="R12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T12" s="3">
         <v>1400</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,13 +1101,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1086,108 +1125,120 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>22500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>7300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
         <v>7200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E15" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="F15" s="3">
         <v>4900</v>
       </c>
       <c r="G15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I15" s="3">
         <v>5200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>7500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>7500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>7600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>8800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>9200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>9000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>8900</v>
-      </c>
-      <c r="O15" s="3">
-        <v>9900</v>
-      </c>
-      <c r="P15" s="3">
-        <v>9500</v>
       </c>
       <c r="Q15" s="3">
         <v>9900</v>
       </c>
       <c r="R15" s="3">
+        <v>9500</v>
+      </c>
+      <c r="S15" s="3">
+        <v>9900</v>
+      </c>
+      <c r="T15" s="3">
         <v>9800</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>75400</v>
+      </c>
+      <c r="F17" s="3">
         <v>77500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>73900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>78600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>77400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>98800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>77500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>79400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>72000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>72200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>65900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>77600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>85900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>77300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>77100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>76300</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>4900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-17700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-5400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1300</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,303 +1412,335 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
+        <v>500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F21" s="3">
         <v>5100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>9700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>11300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>13800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-7900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>13700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>7800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>14300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>12300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>10400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>12500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>13400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>13700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>11200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F22" s="3">
         <v>14000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>12900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>12700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>12800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>12800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>12500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>12300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>12400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>12400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>13000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>13000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>11900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>12000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>12400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>12100</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-16800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-11100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-9200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-7600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-30500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-8600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-14200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-9800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-14600</v>
       </c>
       <c r="N23" s="3">
         <v>-12300</v>
       </c>
       <c r="O23" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-17500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-11200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-13400</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>600</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>200</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
+      <c r="S24" s="3">
+        <v>200</v>
+      </c>
+      <c r="T24" s="3">
+        <v>100</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-17400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-11200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-9600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-29500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-8900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-14900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-9800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-12700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-14900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-12500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-17800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-11400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-13500</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-17400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-11200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-9600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-29500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-8900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-14900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-9800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-12700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-14900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-12500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-15400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-13100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-14100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2188,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-17400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-11200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-9600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-29500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-8900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-14900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-9800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-12700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-14900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-12500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-15400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-13100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-14100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-17400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-11200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-9600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-29500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-8900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-14900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-9800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-12700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-14900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-12500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-15400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-13100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-14100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2572,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>32600</v>
+      </c>
+      <c r="F41" s="3">
         <v>32900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>37500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>38400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>46500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>41800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>42900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>47800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>51200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>43800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>34100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>50600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>43400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,53 +2698,59 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>102300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>95700</v>
+      </c>
+      <c r="F43" s="3">
         <v>92800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>91200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>99000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>93300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>97600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>95700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>83600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>84000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>86100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>89100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>103300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>97000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,8 +2763,14 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,126 +2828,144 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F45" s="3">
         <v>15400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>14400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>16700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>10800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>13000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>11700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>12800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>7900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>11100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>14200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>15400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>7900</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>146800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>140300</v>
+      </c>
+      <c r="F46" s="3">
         <v>141100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>143200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>154100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>150500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>152400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>150300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>144200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>143100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>141000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>137500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>169400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>148300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2793,74 +3002,80 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3">
         <v>233300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>232200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>230800</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>32300</v>
+      </c>
+      <c r="F48" s="3">
         <v>17700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>19600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>20000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>22300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>21600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>22600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>23300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>25200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>27800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>31100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>34700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>38300</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2873,8 +3088,14 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2882,44 +3103,44 @@
         <v>436700</v>
       </c>
       <c r="E49" s="3">
+        <v>438000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>436700</v>
+      </c>
+      <c r="G49" s="3">
         <v>443200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>450500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>455100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>468000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>496900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>501800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>508800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>510900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>515200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>518600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>525700</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,8 +3153,14 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,53 +3283,59 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F52" s="3">
         <v>8300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>8300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>8500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3109,8 +3348,14 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>623500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>619400</v>
+      </c>
+      <c r="F54" s="3">
         <v>603800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>614300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>633000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>636400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>644800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>672200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>672400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>679700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>682400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>686700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>725900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>714900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>233900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>232900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>232000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3532,75 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F57" s="3">
         <v>34700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>28800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>32800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>27100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>35400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>35000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>32100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>33500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>36000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>30800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>31600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>31300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3341,7 +3608,7 @@
         <v>3000</v>
       </c>
       <c r="E58" s="3">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="F58" s="3">
         <v>3000</v>
@@ -3359,203 +3626,221 @@
         <v>3000</v>
       </c>
       <c r="K58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M58" s="3">
         <v>10900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>11100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>13100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>41400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>11700</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>26500</v>
+      </c>
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>40400</v>
+      </c>
+      <c r="F60" s="3">
         <v>42000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>35300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>40000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>35500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>43200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>42600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>38300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>49100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>51800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>49300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>76900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>48200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>100</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>527400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>524500</v>
+      </c>
+      <c r="F61" s="3">
         <v>515700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>513000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>510300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>507700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>499200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>496700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>494300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>472600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>467200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>466000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>467500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>468900</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3568,67 +3853,79 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F62" s="3">
         <v>15100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>14400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>15500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>15300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>17600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>17800</v>
       </c>
       <c r="J62" s="3">
         <v>17600</v>
       </c>
       <c r="K62" s="3">
+        <v>17800</v>
+      </c>
+      <c r="L62" s="3">
+        <v>17600</v>
+      </c>
+      <c r="M62" s="3">
         <v>15800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>16700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>15200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>13900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>14100</v>
-      </c>
-      <c r="P62" s="3">
-        <v>8100</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>8100</v>
       </c>
       <c r="R62" s="3">
         <v>8100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
+      <c r="S62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="T62" s="3">
+        <v>8100</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>592600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>585800</v>
+      </c>
+      <c r="F66" s="3">
         <v>572900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>562600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>565800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>558600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>560000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>557200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>550200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>537500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>535600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>530500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>558300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>531100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>8300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>100</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-363600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-359100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-354200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-336800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-325500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-316000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-308700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-279100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-270300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-255400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-245600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-232900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-218000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-205500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>500</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
-      <c r="T72" s="3">
-        <v>0</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,8 +4723,14 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4367,58 +4738,64 @@
         <v>30900</v>
       </c>
       <c r="E76" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>30900</v>
+      </c>
+      <c r="G76" s="3">
         <v>51700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>67200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>77900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>84700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>115000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>122100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>142200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>146700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>156300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>167600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>183800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>225000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>224300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>223700</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-17400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-11200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-9600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-29500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-8900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-14900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-9800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-12700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-14900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-12500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-15400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-13100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-14100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +5017,75 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7900</v>
+        <v>6600</v>
       </c>
       <c r="E83" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="F83" s="3">
         <v>7900</v>
       </c>
       <c r="G83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="H83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I83" s="3">
         <v>8600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>9900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>9700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>9800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>11700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>12200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>12000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>11800</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3">
         <v>12600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>12500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>12500</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>5500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>10100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>14500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>16600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>20700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-12000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-7500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5497,75 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-4300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2800</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-3000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-2200</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5688,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-4500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-4300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-5100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-5300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-3000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2200</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +6038,205 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-5200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-4500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-33500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>24500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-187800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>231300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-200</v>
       </c>
       <c r="H101" s="3">
         <v>-200</v>
       </c>
       <c r="I101" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="J101" s="3">
         <v>-200</v>
       </c>
       <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-8100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>4700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-4900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>7400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>9700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-16500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>7200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>19500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>KLDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E8" s="3">
         <v>90700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>85800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>74500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>75200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>81900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>82300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>81100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>81700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>75500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>74600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>72300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>64400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>78300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>80500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>78200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>78300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>75000</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E9" s="3">
         <v>43600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>41700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>40800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>39600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>43300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>43800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>41900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>37400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>36300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>37700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>34200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>39500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>41900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>42000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>39500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>37500</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E10" s="3">
         <v>47100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>44100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>33700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>35600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>38600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>39200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>40800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>34600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>30200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>36200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>38800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>37500</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,52 +990,53 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E12" s="3">
         <v>3200</v>
       </c>
       <c r="F12" s="3">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="G12" s="3">
         <v>3600</v>
       </c>
       <c r="H12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I12" s="3">
         <v>3100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1500</v>
       </c>
       <c r="R12" s="3">
         <v>1500</v>
@@ -1031,19 +1045,22 @@
         <v>1500</v>
       </c>
       <c r="T12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U12" s="3">
         <v>1400</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,16 +1124,19 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1131,17 +1151,17 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>22500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>7300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1151,40 +1171,43 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3">
         <v>7200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="E15" s="3">
         <v>4800</v>
       </c>
       <c r="F15" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G15" s="3">
         <v>4900</v>
@@ -1193,52 +1216,55 @@
         <v>4900</v>
       </c>
       <c r="I15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J15" s="3">
         <v>5200</v>
-      </c>
-      <c r="J15" s="3">
-        <v>7500</v>
       </c>
       <c r="K15" s="3">
         <v>7500</v>
       </c>
       <c r="L15" s="3">
+        <v>7500</v>
+      </c>
+      <c r="M15" s="3">
         <v>7600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>9200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>9000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>9900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>9500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>9900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>9800</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,73 +1285,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E17" s="3">
         <v>79300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>75400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>77500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>73900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>78600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>77400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>98800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>77500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>79400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>72000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>72200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>65900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>77600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>85900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>77300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>77100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>76300</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,64 +1363,67 @@
         <v>11400</v>
       </c>
       <c r="E18" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F18" s="3">
         <v>10400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-17700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1300</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E21" s="3">
         <v>18200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>13400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>13700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>11200</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E22" s="3">
         <v>15800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>14000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>12800</v>
       </c>
       <c r="J22" s="3">
         <v>12800</v>
       </c>
       <c r="K22" s="3">
+        <v>12800</v>
+      </c>
+      <c r="L22" s="3">
         <v>12500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>12400</v>
       </c>
       <c r="N22" s="3">
         <v>12400</v>
       </c>
       <c r="O22" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="P22" s="3">
         <v>13000</v>
       </c>
       <c r="Q22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="R22" s="3">
         <v>11900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>12400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>12100</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-16800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-30500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-14600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-17500</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-11200</v>
       </c>
       <c r="S23" s="3">
         <v>-11200</v>
       </c>
       <c r="T23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-13400</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
-      </c>
-      <c r="E24" s="3">
-        <v>600</v>
       </c>
       <c r="F24" s="3">
         <v>600</v>
       </c>
       <c r="G24" s="3">
+        <v>600</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>400</v>
       </c>
       <c r="P24" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-17400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-29500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-13500</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-17400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-29500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-15400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-13100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-14100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-17400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-29500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-15400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-13100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-14100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-17400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-29500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-15400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-13100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-14100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E41" s="3">
         <v>26300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>32600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>32900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>38400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>46500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>41800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>42900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>47800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>51200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>34100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>50600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>43400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1000</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,56 +2794,59 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E43" s="3">
         <v>102300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>95700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>92800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>91200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>99000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>93300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>97600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>95700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>83600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>84000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>86100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>89100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>103300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>97000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,61 +2930,64 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E45" s="3">
         <v>18200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
-      </c>
-      <c r="T45" s="3">
-        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -2896,76 +2995,82 @@
       <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>145300</v>
+      </c>
+      <c r="E46" s="3">
         <v>146800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>140300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>141100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>143200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>154100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>150500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>152400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>150300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>144200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>143100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>141000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>137500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>169400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>148300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1200</v>
-      </c>
-      <c r="U46" s="3">
-        <v>200</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>200</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3008,77 +3113,80 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3">
         <v>233300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>232200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>230800</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E48" s="3">
         <v>31000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>17700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>20000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>25200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>34700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>38300</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,56 +3202,59 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>434600</v>
+      </c>
+      <c r="E49" s="3">
         <v>436700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>438000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>436700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>443200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>450500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>455100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>468000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>496900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>501800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>508800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>510900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>515200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>518600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>525700</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,56 +3406,59 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="E52" s="3">
         <v>9000</v>
       </c>
       <c r="F52" s="3">
-        <v>8300</v>
+        <v>9000</v>
       </c>
       <c r="G52" s="3">
         <v>8300</v>
       </c>
       <c r="H52" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I52" s="3">
         <v>8400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2600</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>619200</v>
+      </c>
+      <c r="E54" s="3">
         <v>623500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>619400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>603800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>614300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>633000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>636400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>644800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>672200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>672400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>679700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>682400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>686700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>725900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>714900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>233900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>232900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>232000</v>
-      </c>
-      <c r="U54" s="3">
-        <v>200</v>
       </c>
       <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>200</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,84 +3664,88 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E57" s="3">
         <v>32300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>28800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>35400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>36000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>30800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>31600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>31300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>289500</v>
+      </c>
+      <c r="E58" s="3">
         <v>3000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>3000</v>
       </c>
       <c r="G58" s="3">
         <v>3000</v>
@@ -3632,23 +3766,23 @@
         <v>3000</v>
       </c>
       <c r="M58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N58" s="3">
         <v>10900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>41400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11700</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
@@ -3656,194 +3790,203 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E59" s="3">
         <v>10300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>4700</v>
       </c>
       <c r="N59" s="3">
         <v>4700</v>
       </c>
       <c r="O59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P59" s="3">
         <v>5400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>329300</v>
+      </c>
+      <c r="E60" s="3">
         <v>45600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>40400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>42000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>35300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>40000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>35500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>43200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>42600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>49100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>51800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>49300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>76900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>48200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
-      </c>
-      <c r="U60" s="3">
-        <v>100</v>
       </c>
       <c r="V60" s="3">
         <v>100</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>100</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>243900</v>
+      </c>
+      <c r="E61" s="3">
         <v>527400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>524500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>515700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>513000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>510300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>507700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>499200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>496700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>494300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>472600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>467200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>466000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>467500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>468900</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3859,55 +4002,58 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E62" s="3">
         <v>19500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>17600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14100</v>
-      </c>
-      <c r="R62" s="3">
-        <v>8100</v>
       </c>
       <c r="S62" s="3">
         <v>8100</v>
@@ -3915,8 +4061,8 @@
       <c r="T62" s="3">
         <v>8100</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
+      <c r="U62" s="3">
+        <v>8100</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>592200</v>
+      </c>
+      <c r="E66" s="3">
         <v>592600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>585800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>572900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>562600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>565800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>558600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>560000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>557200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>550200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>537500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>535600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>530500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>558300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>531100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>100</v>
       </c>
       <c r="V66" s="3">
         <v>100</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>100</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-368300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-363600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-359100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-354200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-336800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-325500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-316000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-308700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-279100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-270300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-255400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-245600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-232900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-218000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-205500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>500</v>
       </c>
-      <c r="U72" s="3">
-        <v>0</v>
-      </c>
       <c r="V72" s="3">
         <v>0</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E76" s="3">
         <v>30900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>33700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>30900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>51700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>67200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>77900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>84700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>115000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>122100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>142200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>146700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>156300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>167600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>183800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>225000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>224300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>223700</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
       <c r="V76" s="3">
         <v>0</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-17400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-29500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-15400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-13100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-14100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,64 +5217,65 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E83" s="3">
         <v>6600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11800</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3">
         <v>12600</v>
-      </c>
-      <c r="S83" s="3">
-        <v>12500</v>
       </c>
       <c r="T83" s="3">
         <v>12500</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
+      <c r="U83" s="3">
+        <v>12500</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3">
         <v>-4100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2200</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2200</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-1000</v>
       </c>
       <c r="K100" s="3">
         <v>-1000</v>
       </c>
       <c r="L100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M100" s="3">
         <v>2700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-33500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>24500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-187800</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>231300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6118,16 +6367,16 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>700</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-600</v>
       </c>
       <c r="G101" s="3">
         <v>-600</v>
       </c>
       <c r="H101" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="I101" s="3">
         <v>-200</v>
@@ -6136,37 +6385,37 @@
         <v>-200</v>
       </c>
       <c r="K101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>3</v>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>3</v>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-16500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>19500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KLDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>KLDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E8" s="3">
         <v>90000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>90700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>85800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>74500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>75200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>81900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>82300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>81100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>81700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>75500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>74600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>72300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>64400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>78300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>80500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>78200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>78300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>75000</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E9" s="3">
         <v>45000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>43600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>41700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>40800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>39600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>43300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>43800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>41900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>37400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>36300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>37700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>34200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>39500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>41900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>42000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>39500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>37500</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E10" s="3">
         <v>45000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>47100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>44100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>33700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>35600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>38500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>39200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>40800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>38300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>34600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>30200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>38600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>36200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>38800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>37500</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1000,46 +1014,46 @@
         <v>3300</v>
       </c>
       <c r="E12" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F12" s="3">
         <v>3200</v>
       </c>
       <c r="G12" s="3">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="H12" s="3">
         <v>3600</v>
       </c>
       <c r="I12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J12" s="3">
         <v>3100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1700</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1500</v>
       </c>
       <c r="S12" s="3">
         <v>1500</v>
@@ -1048,19 +1062,22 @@
         <v>1500</v>
       </c>
       <c r="U12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V12" s="3">
         <v>1400</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1138,8 +1158,8 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1154,17 +1174,17 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>22500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>7300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1174,43 +1194,46 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
         <v>7200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E15" s="3">
         <v>4900</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4800</v>
       </c>
       <c r="F15" s="3">
         <v>4800</v>
       </c>
       <c r="G15" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="H15" s="3">
         <v>4900</v>
@@ -1219,52 +1242,55 @@
         <v>4900</v>
       </c>
       <c r="J15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K15" s="3">
         <v>5200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>7500</v>
       </c>
       <c r="L15" s="3">
         <v>7500</v>
       </c>
       <c r="M15" s="3">
+        <v>7500</v>
+      </c>
+      <c r="N15" s="3">
         <v>7600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>9200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>9000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>9900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>9500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>9900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>9800</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E17" s="3">
         <v>78600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>79300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>75400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>77500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>73900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>78600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>77400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>98800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>77500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>79400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>72000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>72200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>65900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>77600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>85900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>77300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>77100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>76300</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11400</v>
+        <v>6800</v>
       </c>
       <c r="E18" s="3">
         <v>11400</v>
       </c>
       <c r="F18" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G18" s="3">
         <v>10400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-17700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1300</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1481,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E21" s="3">
         <v>18500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>14300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>13400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>13700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>11200</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E22" s="3">
         <v>16200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>14000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>12800</v>
       </c>
       <c r="K22" s="3">
         <v>12800</v>
       </c>
       <c r="L22" s="3">
+        <v>12800</v>
+      </c>
+      <c r="M22" s="3">
         <v>12500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>12400</v>
       </c>
       <c r="O22" s="3">
         <v>12400</v>
       </c>
       <c r="P22" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="Q22" s="3">
         <v>13000</v>
       </c>
       <c r="R22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="S22" s="3">
         <v>11900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>12000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>12400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>12100</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-30500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17500</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-11200</v>
       </c>
       <c r="T23" s="3">
         <v>-11200</v>
       </c>
       <c r="U23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="V23" s="3">
         <v>-13400</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>600</v>
       </c>
       <c r="G24" s="3">
         <v>600</v>
       </c>
       <c r="H24" s="3">
+        <v>600</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>400</v>
       </c>
       <c r="Q24" s="3">
+        <v>400</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-17400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-29500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-13500</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-17400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-29500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-15400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-12100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-13100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-14100</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-17400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-29500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-15400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-12100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-13100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-14100</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-17400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-29500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-15400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-12100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-13100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-14100</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E41" s="3">
         <v>20900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>26300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>32600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>32900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>38400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>46500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>42900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>47800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>51200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>43800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>34100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>50600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>43400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1000</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,59 +2887,62 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>98100</v>
+      </c>
+      <c r="E43" s="3">
         <v>107800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>102300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>95700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>92800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>91200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>99000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>93300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>97600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>95700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>83600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>84000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>86100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>89100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>103300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>97000</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,64 +3029,67 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E45" s="3">
         <v>16600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
-      </c>
-      <c r="U45" s="3">
-        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -2998,79 +3097,85 @@
       <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>142700</v>
+      </c>
+      <c r="E46" s="3">
         <v>145300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>146800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>140300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>141100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>143200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>154100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>150500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>152400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>150300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>144200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>143100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>141000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>137500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>169400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>148300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1200</v>
-      </c>
-      <c r="V46" s="3">
-        <v>200</v>
       </c>
       <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3116,80 +3221,83 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3">
         <v>233300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>232200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>230800</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E48" s="3">
         <v>30300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>17700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>20000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>22300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>25200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>34700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>38300</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3205,59 +3313,62 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>431000</v>
+      </c>
+      <c r="E49" s="3">
         <v>434600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>436700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>438000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>436700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>443200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>450500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>455100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>468000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>496900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>501800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>508800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>510900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>515200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>518600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>525700</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3418,50 +3538,50 @@
         <v>8900</v>
       </c>
       <c r="E52" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="F52" s="3">
         <v>9000</v>
       </c>
       <c r="G52" s="3">
-        <v>8300</v>
+        <v>9000</v>
       </c>
       <c r="H52" s="3">
         <v>8300</v>
       </c>
       <c r="I52" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J52" s="3">
         <v>8400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2600</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>609200</v>
+      </c>
+      <c r="E54" s="3">
         <v>619200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>623500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>619400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>603800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>614300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>633000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>636400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>644800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>672200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>672400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>679700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>682400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>686700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>725900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>714900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>233900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>232900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>232000</v>
-      </c>
-      <c r="V54" s="3">
-        <v>200</v>
       </c>
       <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,90 +3795,94 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E57" s="3">
         <v>29800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>28800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>35000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>36000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>30800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>31600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>31300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>289700</v>
+      </c>
+      <c r="E58" s="3">
         <v>289500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3000</v>
       </c>
       <c r="H58" s="3">
         <v>3000</v>
@@ -3769,23 +3903,23 @@
         <v>3000</v>
       </c>
       <c r="N58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O58" s="3">
         <v>10900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>41400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>11700</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
@@ -3793,203 +3927,212 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E59" s="3">
         <v>10000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>4700</v>
       </c>
       <c r="O59" s="3">
         <v>4700</v>
       </c>
       <c r="P59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="Q59" s="3">
         <v>5400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>330800</v>
+      </c>
+      <c r="E60" s="3">
         <v>329300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>45600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>40400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>42000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>35300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>40000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>35500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>43200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>42600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>38300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>49100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>51800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>49300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>76900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>48200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
-      </c>
-      <c r="V60" s="3">
-        <v>100</v>
       </c>
       <c r="W60" s="3">
         <v>100</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>247400</v>
+      </c>
+      <c r="E61" s="3">
         <v>243900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>527400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>524500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>515700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>513000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>510300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>507700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>499200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>496700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>494300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>472600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>467200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>466000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>467500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>468900</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4005,58 +4148,61 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E62" s="3">
         <v>19000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14100</v>
-      </c>
-      <c r="S62" s="3">
-        <v>8100</v>
       </c>
       <c r="T62" s="3">
         <v>8100</v>
@@ -4064,8 +4210,8 @@
       <c r="U62" s="3">
         <v>8100</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
+      <c r="V62" s="3">
+        <v>8100</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>595200</v>
+      </c>
+      <c r="E66" s="3">
         <v>592200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>592600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>585800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>572900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>562600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>565800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>558600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>560000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>557200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>550200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>537500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>535600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>530500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>558300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>531100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8300</v>
-      </c>
-      <c r="V66" s="3">
-        <v>100</v>
       </c>
       <c r="W66" s="3">
         <v>100</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-379700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-368300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-363600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-359100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-354200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-336800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-325500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-316000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-308700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-279100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-270300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-255400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-245600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-232900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-218000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-205500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>500</v>
       </c>
-      <c r="V72" s="3">
-        <v>0</v>
-      </c>
       <c r="W72" s="3">
         <v>0</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E76" s="3">
         <v>26900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>30900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>33700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>30900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>51700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>67200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>77900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>84700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>115000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>122100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>142200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>146700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>156300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>167600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>183800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>225000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>224300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>223700</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
       <c r="W76" s="3">
         <v>0</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-17400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-29500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-15400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-12100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-13100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-14100</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,67 +5416,68 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E83" s="3">
         <v>6800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11800</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3">
         <v>12600</v>
-      </c>
-      <c r="T83" s="3">
-        <v>12500</v>
       </c>
       <c r="U83" s="3">
         <v>12500</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
+      <c r="V83" s="3">
+        <v>12500</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>20700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-12000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2800</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3">
         <v>-4100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2200</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2200</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,96 +6533,102 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2400</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-1000</v>
       </c>
       <c r="L100" s="3">
         <v>-1000</v>
       </c>
       <c r="M100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N100" s="3">
         <v>2700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-33500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>24500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-187800</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>231300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
       </c>
       <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
         <v>700</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-600</v>
       </c>
       <c r="H101" s="3">
         <v>-600</v>
       </c>
       <c r="I101" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="J101" s="3">
         <v>-200</v>
@@ -6388,37 +6637,37 @@
         <v>-200</v>
       </c>
       <c r="L101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>3</v>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>3</v>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>19500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
